--- a/inst/data_files/SH11SIMPOP_StockAge.xlsx
+++ b/inst/data_files/SH11SIMPOP_StockAge.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="980" yWindow="1100" windowWidth="30080" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,154 +47,154 @@
     <t>Female</t>
   </si>
   <si>
-    <t>BY04UPSALM</t>
-  </si>
-  <si>
-    <t>BY05UPSALM</t>
-  </si>
-  <si>
-    <t>BY06UPSALM</t>
-  </si>
-  <si>
-    <t>BY07UPSALM</t>
-  </si>
-  <si>
-    <t>BY08UPSALM</t>
-  </si>
-  <si>
-    <t>BY04MFSALM</t>
-  </si>
-  <si>
-    <t>BY05MFSALM</t>
-  </si>
-  <si>
-    <t>BY06MFSALM</t>
-  </si>
-  <si>
-    <t>BY07MFSALM</t>
-  </si>
-  <si>
-    <t>BY08MFSALM</t>
-  </si>
-  <si>
-    <t>BY04SFSALM</t>
-  </si>
-  <si>
-    <t>BY05SFSALM</t>
-  </si>
-  <si>
-    <t>BY06SFSALM</t>
-  </si>
-  <si>
-    <t>BY07SFSALM</t>
-  </si>
-  <si>
-    <t>BY08SFSALM</t>
-  </si>
-  <si>
-    <t>BY04LOSALM</t>
-  </si>
-  <si>
-    <t>BY05LOSALM</t>
-  </si>
-  <si>
-    <t>BY06LOSALM</t>
-  </si>
-  <si>
-    <t>BY07LOSALM</t>
-  </si>
-  <si>
-    <t>BY08LOSALM</t>
-  </si>
-  <si>
-    <t>BY04UPCLWR</t>
-  </si>
-  <si>
-    <t>BY05UPCLWR</t>
-  </si>
-  <si>
-    <t>BY06UPCLWR</t>
-  </si>
-  <si>
-    <t>BY07UPCLWR</t>
-  </si>
-  <si>
-    <t>BY08UPCLWR</t>
-  </si>
-  <si>
-    <t>BY04SFCLWR</t>
-  </si>
-  <si>
-    <t>BY05SFCLWR</t>
-  </si>
-  <si>
-    <t>BY06SFCLWR</t>
-  </si>
-  <si>
-    <t>BY07SFCLWR</t>
-  </si>
-  <si>
-    <t>BY08SFCLWR</t>
-  </si>
-  <si>
-    <t>BY04LOCLWR</t>
-  </si>
-  <si>
-    <t>BY05LOCLWR</t>
-  </si>
-  <si>
-    <t>BY06LOCLWR</t>
-  </si>
-  <si>
-    <t>BY07LOCLWR</t>
-  </si>
-  <si>
-    <t>BY08LOCLWR</t>
-  </si>
-  <si>
-    <t>BY04IMNAHA</t>
-  </si>
-  <si>
-    <t>BY05IMNAHA</t>
-  </si>
-  <si>
-    <t>BY06IMNAHA</t>
-  </si>
-  <si>
-    <t>BY07IMNAHA</t>
-  </si>
-  <si>
-    <t>BY08IMNAHA</t>
-  </si>
-  <si>
-    <t>BY04GRROND</t>
-  </si>
-  <si>
-    <t>BY05GRROND</t>
-  </si>
-  <si>
-    <t>BY06GRROND</t>
-  </si>
-  <si>
-    <t>BY07GRROND</t>
-  </si>
-  <si>
-    <t>BY08GRROND</t>
-  </si>
-  <si>
-    <t>BY04LSNAKE</t>
-  </si>
-  <si>
-    <t>BY05LSNAKE</t>
-  </si>
-  <si>
-    <t>BY06LSNAKE</t>
-  </si>
-  <si>
-    <t>BY07LSNAKE</t>
-  </si>
-  <si>
-    <t>BY08LSNAKE</t>
+    <t>UPSALM..BY04</t>
+  </si>
+  <si>
+    <t>UPSALM..BY05</t>
+  </si>
+  <si>
+    <t>UPSALM..BY06</t>
+  </si>
+  <si>
+    <t>UPSALM..BY07</t>
+  </si>
+  <si>
+    <t>UPSALM..BY08</t>
+  </si>
+  <si>
+    <t>MFSALM..BY04</t>
+  </si>
+  <si>
+    <t>MFSALM..BY05</t>
+  </si>
+  <si>
+    <t>MFSALM..BY06</t>
+  </si>
+  <si>
+    <t>MFSALM..BY07</t>
+  </si>
+  <si>
+    <t>MFSALM..BY08</t>
+  </si>
+  <si>
+    <t>SFSALM..BY04</t>
+  </si>
+  <si>
+    <t>SFSALM..BY05</t>
+  </si>
+  <si>
+    <t>SFSALM..BY06</t>
+  </si>
+  <si>
+    <t>SFSALM..BY07</t>
+  </si>
+  <si>
+    <t>SFSALM..BY08</t>
+  </si>
+  <si>
+    <t>LOSALM..BY04</t>
+  </si>
+  <si>
+    <t>LOSALM..BY05</t>
+  </si>
+  <si>
+    <t>LOSALM..BY06</t>
+  </si>
+  <si>
+    <t>LOSALM..BY07</t>
+  </si>
+  <si>
+    <t>LOSALM..BY08</t>
+  </si>
+  <si>
+    <t>UPCLWR..BY04</t>
+  </si>
+  <si>
+    <t>UPCLWR..BY05</t>
+  </si>
+  <si>
+    <t>UPCLWR..BY06</t>
+  </si>
+  <si>
+    <t>UPCLWR..BY07</t>
+  </si>
+  <si>
+    <t>UPCLWR..BY08</t>
+  </si>
+  <si>
+    <t>SFCLWR..BY04</t>
+  </si>
+  <si>
+    <t>SFCLWR..BY05</t>
+  </si>
+  <si>
+    <t>SFCLWR..BY06</t>
+  </si>
+  <si>
+    <t>SFCLWR..BY07</t>
+  </si>
+  <si>
+    <t>SFCLWR..BY08</t>
+  </si>
+  <si>
+    <t>LOCLWR..BY04</t>
+  </si>
+  <si>
+    <t>LOCLWR..BY05</t>
+  </si>
+  <si>
+    <t>LOCLWR..BY06</t>
+  </si>
+  <si>
+    <t>LOCLWR..BY07</t>
+  </si>
+  <si>
+    <t>LOCLWR..BY08</t>
+  </si>
+  <si>
+    <t>IMNAHA..BY04</t>
+  </si>
+  <si>
+    <t>IMNAHA..BY05</t>
+  </si>
+  <si>
+    <t>IMNAHA..BY06</t>
+  </si>
+  <si>
+    <t>IMNAHA..BY07</t>
+  </si>
+  <si>
+    <t>IMNAHA..BY08</t>
+  </si>
+  <si>
+    <t>GRROND..BY04</t>
+  </si>
+  <si>
+    <t>GRROND..BY05</t>
+  </si>
+  <si>
+    <t>GRROND..BY06</t>
+  </si>
+  <si>
+    <t>GRROND..BY07</t>
+  </si>
+  <si>
+    <t>GRROND..BY08</t>
+  </si>
+  <si>
+    <t>LSNAKE..BY04</t>
+  </si>
+  <si>
+    <t>LSNAKE..BY05</t>
+  </si>
+  <si>
+    <t>LSNAKE..BY06</t>
+  </si>
+  <si>
+    <t>LSNAKE..BY07</t>
+  </si>
+  <si>
+    <t>LSNAKE..BY08</t>
   </si>
 </sst>
 </file>
@@ -203,7 +208,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +261,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -302,6 +323,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -341,8 +364,10 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -649,26 +674,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="BI12" sqref="BI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="58" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="58" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" ht="13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1020,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" ht="13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1196,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" ht="13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1372,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" ht="13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1548,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" ht="13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1724,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" ht="13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1900,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" ht="13">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2076,7 +2101,7 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" ht="13">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2252,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" ht="13">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2428,7 +2453,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" ht="13">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2604,7 +2629,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" ht="13">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2780,7 +2805,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" ht="13">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2956,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" ht="13">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3132,7 +3157,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" ht="13">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3308,7 +3333,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" ht="13">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3484,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:58" ht="13">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3660,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:58" ht="13">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3836,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:58" ht="13">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4012,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:58" ht="13">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4188,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:58" ht="13">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4364,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:58" ht="13">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4540,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:58" ht="13">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4716,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:58" ht="13">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4892,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:58" ht="13">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5068,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:58" ht="13">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5244,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58" ht="13">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5420,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:58" ht="13">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5598,7 +5623,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5608,9 +5638,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5620,8 +5655,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>